--- a/sleep_diet_dataset.xlsx
+++ b/sleep_diet_dataset.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hv/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D475FFEC-A9FC-2A45-B3FA-5B2D122789F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3280" yWindow="2480" windowWidth="21740" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -128,13 +134,97 @@
   </si>
   <si>
     <t>Cebeci</t>
+  </si>
+  <si>
+    <t>Doğukan</t>
+  </si>
+  <si>
+    <t>Tuna</t>
+  </si>
+  <si>
+    <t>Meriç</t>
+  </si>
+  <si>
+    <t>Kadir</t>
+  </si>
+  <si>
+    <t>İbrahim</t>
+  </si>
+  <si>
+    <t>Ilgın</t>
+  </si>
+  <si>
+    <t>Çetin</t>
+  </si>
+  <si>
+    <t>Buse</t>
+  </si>
+  <si>
+    <t>Kaan</t>
+  </si>
+  <si>
+    <t>Çağdaş</t>
+  </si>
+  <si>
+    <t>Eshabil</t>
+  </si>
+  <si>
+    <t>Mehmet</t>
+  </si>
+  <si>
+    <t>Buğrahan</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Emre</t>
+  </si>
+  <si>
+    <t>Yeşim</t>
+  </si>
+  <si>
+    <t>Mümin</t>
+  </si>
+  <si>
+    <t>Hatice</t>
+  </si>
+  <si>
+    <t>Selen</t>
+  </si>
+  <si>
+    <t>Esma</t>
+  </si>
+  <si>
+    <t>Cansın</t>
+  </si>
+  <si>
+    <t>Talha</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>Harun</t>
+  </si>
+  <si>
+    <t>Serhat</t>
+  </si>
+  <si>
+    <t>Berk</t>
+  </si>
+  <si>
+    <t>Berat</t>
+  </si>
+  <si>
+    <t>Erdem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,13 +287,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +339,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -309,9 +408,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,14 +584,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L59" sqref="L59"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -567,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -605,7 +707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -640,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -678,7 +780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -716,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -754,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -792,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -824,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -862,7 +964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -900,7 +1002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -938,7 +1040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -976,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1014,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1052,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1163,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1201,7 +1303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +1379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1309,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1347,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1385,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1423,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1461,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>2.5</v>
       </c>
       <c r="C27">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1497,6 +1599,1184 @@
       </c>
       <c r="L27">
         <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1900</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>13</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="C29">
+        <v>1800</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>1700</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>2100</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>18</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1500</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>7.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33">
+        <v>23</v>
+      </c>
+      <c r="I33">
+        <v>0.5</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2000</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>12</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>9</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1500</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3.5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2300</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>1300</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2.5</v>
+      </c>
+      <c r="C38">
+        <v>1700</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>7</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1900</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>5</v>
+      </c>
+      <c r="H39">
+        <v>22</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>2.5</v>
+      </c>
+      <c r="C40">
+        <v>1800</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>7</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>1500</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>1300</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2000</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>1950</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>6</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1350</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2400</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>7</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1500</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1600</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>6.5</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>1500</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1300</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>15</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>7</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>2.5</v>
+      </c>
+      <c r="C51">
+        <v>1700</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>5.5</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>7</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>2200</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>17</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="C53">
+        <v>1600</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>1800</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>8</v>
+      </c>
+      <c r="H54">
+        <v>7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2000</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>9</v>
+      </c>
+      <c r="I55">
+        <v>0.5</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>2300</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>7</v>
+      </c>
+      <c r="H56">
+        <v>45</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1500</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>7</v>
+      </c>
+      <c r="H57">
+        <v>8</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>9</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2300</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>21</v>
+      </c>
+      <c r="I58">
+        <v>0.5</v>
+      </c>
+      <c r="J58">
+        <v>7</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
